--- a/biology/Botanique/Parc_de_Flamengo/Parc_de_Flamengo.xlsx
+++ b/biology/Botanique/Parc_de_Flamengo/Parc_de_Flamengo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Flamengo ou parc du Flamengo (en portugais : Parque do Flamengo), également connu sous le nom d'Aterro do Flamengo et officiellement appelé parc Brigadeiro Eduardo Gomes pour sa partie nord et parc Carlos Lacerda pour sa partie sud, est le plus grand parc public de Rio de Janeiro, au Brésil.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Outre les espaces verts, le parc comporte diverses installations sportives et de loisirs. Il est traversé dans le sens de la longueur par une voie rapide et borde la plage de Flamengo (pt). Dans le parc se trouvent notamment :
 la Marina da Glória,
@@ -546,7 +560,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est inauguré le 17 octobre 1965 sous le nom de Parque IV Centenário.
 En 2012 le parc est inscrit au Patrimoine mondial de l'UNESCO dans l'ensemble « Rio de Janeiro, paysages cariocas entre la montagne et la mer ».
